--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,250 +70,238 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -677,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -796,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -846,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3737373737373738</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3643410852713178</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.868421052631579</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3205128205128205</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1243243243243243</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
@@ -1046,13 +1034,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1060,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1086,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1112,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1138,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.671875</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1164,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6711864406779661</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1190,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6575342465753424</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1228,13 +1216,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.647887323943662</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1254,13 +1242,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6326530612244898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1272,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1280,13 +1268,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.630016051364366</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L18">
-        <v>785</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>785</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1298,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>461</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1306,13 +1294,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6029411764705882</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1324,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1332,13 +1320,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1350,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1358,13 +1346,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5897435897435898</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1384,13 +1372,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1410,13 +1398,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5692307692307692</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1428,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1436,13 +1424,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5673076923076923</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1462,25 +1450,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5641025641025641</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>22</v>
-      </c>
-      <c r="M25">
-        <v>22</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1491,10 +1479,10 @@
         <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1506,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1514,13 +1502,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5542857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M27">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1540,13 +1528,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5294117647058824</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1558,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1566,13 +1554,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5149700598802395</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L29">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1592,13 +1580,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5076923076923077</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1610,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1618,13 +1606,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.492063492063492</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1636,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1644,13 +1632,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4897959183673469</v>
+        <v>0.51</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1670,13 +1658,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4868421052631579</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1696,13 +1684,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4861111111111111</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1714,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1722,13 +1710,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4819277108433735</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1740,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1748,13 +1736,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.4661654135338346</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1766,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1774,13 +1762,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.4615384615384616</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1792,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1800,13 +1788,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1818,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1826,13 +1814,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.44</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1844,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1852,13 +1840,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.4156626506024096</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L40">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1870,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1878,13 +1866,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3970588235294117</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1896,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1904,13 +1892,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3947368421052632</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1922,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1930,13 +1918,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.3709677419354839</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1948,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1956,13 +1944,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3666666666666666</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1974,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1982,13 +1970,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.3650793650793651</v>
+        <v>0.3501945525291829</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2000,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2008,7 +1996,7 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.360655737704918</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L46">
         <v>22</v>
@@ -2026,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2034,13 +2022,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.3529411764705883</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L47">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2052,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>264</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2060,13 +2048,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3423423423423423</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2078,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2086,13 +2074,13 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3267326732673267</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2104,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2112,13 +2100,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.3190661478599222</v>
+        <v>0.3068493150684932</v>
       </c>
       <c r="L50">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="M50">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2130,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>175</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2138,13 +2126,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.3136986301369863</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L51">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2156,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>501</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2164,13 +2152,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.3095238095238095</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2182,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2190,13 +2178,13 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.302158273381295</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L53">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2208,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2216,13 +2204,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.2913907284768212</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L54">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2234,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2242,13 +2230,13 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.2777777777777778</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2260,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>78</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2268,13 +2256,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2706766917293233</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2286,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2294,13 +2282,13 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.2522522522522522</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2312,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2320,13 +2308,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.2508073196986007</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L58">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2338,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>696</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2346,25 +2334,25 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.2488038277511962</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L59">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2372,13 +2360,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.2214765100671141</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2390,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>116</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2398,13 +2386,13 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.219047619047619</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2416,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2424,13 +2412,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.2123893805309734</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2442,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>89</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2450,13 +2438,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1933774834437086</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L63">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M63">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2468,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>609</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2476,13 +2464,13 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1912225705329154</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L64">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2494,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>258</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2502,25 +2490,25 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1892583120204604</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L65">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="M65">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>634</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2528,13 +2516,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.188034188034188</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2546,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>95</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2554,13 +2542,13 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1769230769230769</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2572,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2580,25 +2568,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1653116531165312</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L68">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M68">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2606,13 +2594,13 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1585365853658537</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2632,25 +2620,25 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1533742331288344</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2658,13 +2646,13 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1386363636363636</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L71">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M71">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2676,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>379</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2684,13 +2672,13 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1336515513126492</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L72">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M72">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2702,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2710,13 +2698,13 @@
         <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1313868613138686</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L73">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M73">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2728,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>357</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2736,13 +2724,13 @@
         <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1293859649122807</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L74">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M74">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2754,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2762,13 +2750,13 @@
         <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1259259259259259</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2780,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2788,7 +2776,7 @@
         <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1242937853107345</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L76">
         <v>22</v>
@@ -2806,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2814,13 +2802,13 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1237113402061856</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2832,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2840,13 +2828,13 @@
         <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1217712177121771</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L78">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2858,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2866,13 +2854,13 @@
         <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1182266009852217</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="L79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2884,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2892,25 +2880,25 @@
         <v>92</v>
       </c>
       <c r="K80">
-        <v>0.09677419354838709</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M80">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>224</v>
+        <v>993</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2918,25 +2906,25 @@
         <v>93</v>
       </c>
       <c r="K81">
-        <v>0.09663865546218488</v>
+        <v>0.0703012912482066</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>215</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2944,25 +2932,25 @@
         <v>94</v>
       </c>
       <c r="K82">
-        <v>0.07563025210084033</v>
+        <v>0.06839186691312385</v>
       </c>
       <c r="L82">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="M82">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>990</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2970,13 +2958,13 @@
         <v>95</v>
       </c>
       <c r="K83">
-        <v>0.07103825136612021</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -2988,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2996,129 +2984,25 @@
         <v>96</v>
       </c>
       <c r="K84">
-        <v>0.07020057306590258</v>
+        <v>0.04509973980919341</v>
       </c>
       <c r="L84">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M84">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K85">
-        <v>0.0583756345177665</v>
-      </c>
-      <c r="L85">
-        <v>23</v>
-      </c>
-      <c r="M85">
-        <v>23</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K86">
-        <v>0.05374280230326296</v>
-      </c>
-      <c r="L86">
-        <v>28</v>
-      </c>
-      <c r="M86">
-        <v>29</v>
-      </c>
-      <c r="N86">
-        <v>0.97</v>
-      </c>
-      <c r="O86">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K87">
-        <v>0.05350553505535055</v>
-      </c>
-      <c r="L87">
-        <v>29</v>
-      </c>
-      <c r="M87">
-        <v>29</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K88">
-        <v>0.04238754325259515</v>
-      </c>
-      <c r="L88">
-        <v>49</v>
-      </c>
-      <c r="M88">
-        <v>50</v>
-      </c>
-      <c r="N88">
-        <v>0.98</v>
-      </c>
-      <c r="O88">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
